--- a/data_exploration/Encoding/categorical_value_mapping.xlsx
+++ b/data_exploration/Encoding/categorical_value_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub Repository\Patient_Feedback\data_exploration\Encoding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504C79CD-80F2-4CE4-AFF2-19D372CA1122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C1DA8C-EBB3-48E0-A46E-912A01B2C4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="375" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1338,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B322" workbookViewId="0">
-      <selection activeCell="B338" sqref="B338"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,7 +2944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>103</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>103</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>103</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>103</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>103</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>103</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>103</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>103</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>103</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>103</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>103</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>103</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>103</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>103</v>
       </c>
@@ -3108,8 +3108,11 @@
       <c r="C159">
         <v>31</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>135</v>
       </c>
